--- a/devdata/dataset.xlsx
+++ b/devdata/dataset.xlsx
@@ -1931,7 +1931,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2528,7 +2528,7 @@
         <v>77</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O14" t="s">
         <v>77</v>
